--- a/数据整理/stocks/A股/上证主板/603086-先达股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603086-先达股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005970</t>
+          <t>519020</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰消费优选股票</t>
+          <t>国泰金泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3690</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519020</t>
+          <t>005970</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合A</t>
+          <t>国泰消费优选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.47</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.24</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>7.47</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005244</t>
+          <t>007835</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合A</t>
+          <t>国泰鑫睿混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3666</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005245</t>
+          <t>519020</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合C</t>
+          <t>国泰金泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2550</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005970</t>
+          <t>005244</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰消费优选股票</t>
+          <t>国泰聚优价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -706,25 +786,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519020</t>
+          <t>005970</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合A</t>
+          <t>国泰消费优选股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.20</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519022</t>
+          <t>005245</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合C</t>
+          <t>国泰聚优价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.20</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -762,26 +862,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007835</t>
+          <t>519022</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰鑫睿混合</t>
+          <t>国泰金泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>79.30</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603086-先达股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603086-先达股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603086-先达股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603086-先达股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -906,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,17 +918,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -937,14 +958,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.02</v>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2522</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -953,13 +996,157 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2306</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603086-先达股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603086-先达股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,17 +1089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1108,14 +1129,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2561</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.48</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="3">
@@ -1124,14 +1219,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.02</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="4">
@@ -1140,13 +1235,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603086-先达股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603086-先达股份.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,167 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519020</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.47</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3690</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005970</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰消费优选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1640</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519022</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.47</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -624,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -675,226 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007835</t>
+          <t>163302</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰鑫睿混合</t>
+          <t>大摩资源优选混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.43</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.30</t>
+          <t>81.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3666</t>
+          <t>0.2561</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519020</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.17</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2550</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005244</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰聚优价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.63</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.24</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2440</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
         <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005970</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰消费优选股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.31</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1066</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005245</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰聚优价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.24</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0357</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519022</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.17</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.20</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1099,7 +839,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1129,36 +869,226 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>163302</t>
+          <t>007835</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大摩资源优选混合(LOF)</t>
+          <t>国泰鑫睿混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.78</t>
+          <t>79.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2561</t>
+          <t>0.3666</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2550</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1172,96 +1102,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3690</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.48</v>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.54</v>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603086-先达股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603086-先达股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>0.26</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.48</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.02</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -549,6 +566,856 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014521</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015594</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>016399</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -642,7 +1509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -812,7 +1679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1096,7 +1963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603086-先达股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603086-先达股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>1.08</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>0.26</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.48</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.02</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -566,6 +583,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014135</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014136</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014521</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1415,7 +1944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1509,7 +2038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1679,7 +2208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1963,7 +2492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
